--- a/data/trans_camb/Cage-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Cage-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/Cage-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Cage-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/trans_camb/Cage-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Cage-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -2132,14 +2132,231 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
